--- a/交流管理/项目日报/韩旭日报.xlsx
+++ b/交流管理/项目日报/韩旭日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,18 @@
   <si>
     <t xml:space="preserve"> 完成钉钉企业通知功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化钉钉企业通知接口</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>配置阿里云api网关暴露接口</t>
+  </si>
+  <si>
+    <t>测试阿里云api网关暴露接口</t>
   </si>
 </sst>
 </file>
@@ -512,7 +524,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -563,11 +575,49 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="E3" s="2"/>
+      <c r="A3" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>418</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>418</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="E6" s="2"/>

--- a/交流管理/项目日报/韩旭日报.xlsx
+++ b/交流管理/项目日报/韩旭日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>测试阿里云api网关暴露接口</t>
+  </si>
+  <si>
+    <t>测试钉钉上传媒体文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,7 +528,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -620,7 +624,15 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="E6" s="2"/>
+      <c r="A6" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="E7" s="2"/>
